--- a/artfynd/A 58082-2022.xlsx
+++ b/artfynd/A 58082-2022.xlsx
@@ -1159,7 +1159,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107258607</v>
+        <v>107258628</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1203,10 +1203,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404755.5111078721</v>
+        <v>404588.0690095468</v>
       </c>
       <c r="R6" t="n">
-        <v>7063764.822795196</v>
+        <v>7064520.029476826</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107258628</v>
+        <v>107258608</v>
       </c>
       <c r="B7" t="n">
         <v>56395</v>
@@ -1316,7 +1316,11 @@
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1324,10 +1328,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>404588.0690095468</v>
+        <v>404465.3900776547</v>
       </c>
       <c r="R7" t="n">
-        <v>7064520.029476826</v>
+        <v>7064504.653031247</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1401,7 +1405,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107258608</v>
+        <v>107258607</v>
       </c>
       <c r="B8" t="n">
         <v>56395</v>
@@ -1437,11 +1441,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>404465.3900776547</v>
+        <v>404755.5111078721</v>
       </c>
       <c r="R8" t="n">
-        <v>7064504.653031247</v>
+        <v>7063764.822795196</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>

--- a/artfynd/A 58082-2022.xlsx
+++ b/artfynd/A 58082-2022.xlsx
@@ -1159,7 +1159,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>107258628</v>
+        <v>107258607</v>
       </c>
       <c r="B6" t="n">
         <v>56395</v>
@@ -1203,10 +1203,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>404588.0690095468</v>
+        <v>404755.5111078721</v>
       </c>
       <c r="R6" t="n">
-        <v>7064520.029476826</v>
+        <v>7063764.822795196</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>107258608</v>
+        <v>107258628</v>
       </c>
       <c r="B7" t="n">
         <v>56395</v>
@@ -1316,11 +1316,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1328,10 +1324,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>404465.3900776547</v>
+        <v>404588.0690095468</v>
       </c>
       <c r="R7" t="n">
-        <v>7064504.653031247</v>
+        <v>7064520.029476826</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1405,7 +1401,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>107258607</v>
+        <v>107258608</v>
       </c>
       <c r="B8" t="n">
         <v>56395</v>
@@ -1441,7 +1437,11 @@
       <c r="I8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>404755.5111078721</v>
+        <v>404465.3900776547</v>
       </c>
       <c r="R8" t="n">
-        <v>7063764.822795196</v>
+        <v>7064504.653031247</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
